--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a3</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H2">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I2">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J2">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>80.97420017726579</v>
+        <v>35.00976591547566</v>
       </c>
       <c r="R2">
-        <v>728.7678015953921</v>
+        <v>315.087893239281</v>
       </c>
       <c r="S2">
-        <v>0.2851796223942777</v>
+        <v>0.2875281326607952</v>
       </c>
       <c r="T2">
-        <v>0.2851796223942777</v>
+        <v>0.2875281326607952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H3">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I3">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J3">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>47.87119737534044</v>
+        <v>9.837605438586001</v>
       </c>
       <c r="R3">
-        <v>430.840776378064</v>
+        <v>88.53844894727401</v>
       </c>
       <c r="S3">
-        <v>0.1685955521780431</v>
+        <v>0.08079426547550757</v>
       </c>
       <c r="T3">
-        <v>0.1685955521780431</v>
+        <v>0.08079426547550754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H4">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I4">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J4">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>0.2106369342133333</v>
+        <v>0.07612417372866666</v>
       </c>
       <c r="R4">
-        <v>1.89573240792</v>
+        <v>0.6851175635579999</v>
       </c>
       <c r="S4">
-        <v>0.0007418333398754794</v>
+        <v>0.0006251924555963462</v>
       </c>
       <c r="T4">
-        <v>0.0007418333398754794</v>
+        <v>0.0006251924555963461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H5">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I5">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J5">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>31.82452562651556</v>
+        <v>10.43102052532533</v>
       </c>
       <c r="R5">
-        <v>286.42073063864</v>
+        <v>93.87918472792799</v>
       </c>
       <c r="S5">
-        <v>0.1120814553423006</v>
+        <v>0.08566786366507677</v>
       </c>
       <c r="T5">
-        <v>0.1120814553423005</v>
+        <v>0.08566786366507675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +794,10 @@
         <v>0.317432</v>
       </c>
       <c r="I6">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J6">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>24.29250494347378</v>
+        <v>22.35489123318844</v>
       </c>
       <c r="R6">
-        <v>218.632544491264</v>
+        <v>201.194021098696</v>
       </c>
       <c r="S6">
-        <v>0.08555474918708733</v>
+        <v>0.1835962042029131</v>
       </c>
       <c r="T6">
-        <v>0.08555474918708733</v>
+        <v>0.183596204202913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,10 +856,10 @@
         <v>0.317432</v>
       </c>
       <c r="I7">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J7">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>14.36150398947644</v>
+        <v>6.281635818576</v>
       </c>
       <c r="R7">
-        <v>129.253535905288</v>
+        <v>56.534722367184</v>
       </c>
       <c r="S7">
-        <v>0.05057917553698396</v>
+        <v>0.05158980557970361</v>
       </c>
       <c r="T7">
-        <v>0.05057917553698396</v>
+        <v>0.05158980557970359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -918,10 +918,10 @@
         <v>0.317432</v>
       </c>
       <c r="I8">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J8">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>0.06319171729333332</v>
+        <v>0.04860779783644444</v>
       </c>
       <c r="R8">
-        <v>0.56872545564</v>
+        <v>0.437470180528</v>
       </c>
       <c r="S8">
-        <v>0.0002225522454894009</v>
+        <v>0.0003992060209259593</v>
       </c>
       <c r="T8">
-        <v>0.0002225522454894009</v>
+        <v>0.0003992060209259592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>0.317432</v>
       </c>
       <c r="I9">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J9">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>9.547453934875556</v>
+        <v>6.660550940494222</v>
       </c>
       <c r="R9">
-        <v>85.92708541387999</v>
+        <v>59.94495846444799</v>
       </c>
       <c r="S9">
-        <v>0.03362477557066386</v>
+        <v>0.05470175890453073</v>
       </c>
       <c r="T9">
-        <v>0.03362477557066385</v>
+        <v>0.05470175890453072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H10">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I10">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J10">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N10">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q10">
-        <v>9.642631856216889</v>
+        <v>0.227540555377</v>
       </c>
       <c r="R10">
-        <v>86.78368670595201</v>
+        <v>2.047864998393</v>
       </c>
       <c r="S10">
-        <v>0.03395997867991314</v>
+        <v>0.001868744599724074</v>
       </c>
       <c r="T10">
-        <v>0.03395997867991315</v>
+        <v>0.001868744599724073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H11">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I11">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J11">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N11">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q11">
-        <v>5.700634668773221</v>
+        <v>0.06393799405800001</v>
       </c>
       <c r="R11">
-        <v>51.30571201895899</v>
+        <v>0.575441946522</v>
       </c>
       <c r="S11">
-        <v>0.02007682494781722</v>
+        <v>0.0005251098245546208</v>
       </c>
       <c r="T11">
-        <v>0.02007682494781722</v>
+        <v>0.0005251098245546206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H12">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I12">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J12">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N12">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q12">
-        <v>0.02508322907166666</v>
+        <v>0.0004947572859999999</v>
       </c>
       <c r="R12">
-        <v>0.225749061645</v>
+        <v>0.004452815573999999</v>
       </c>
       <c r="S12">
-        <v>8.833956716370751E-05</v>
+        <v>4.063341608948608E-06</v>
       </c>
       <c r="T12">
-        <v>8.833956716370753E-05</v>
+        <v>4.063341608948607E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H13">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I13">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J13">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N13">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q13">
-        <v>3.789752587162778</v>
+        <v>0.067794803576</v>
       </c>
       <c r="R13">
-        <v>34.107773284465</v>
+        <v>0.610153232184</v>
       </c>
       <c r="S13">
-        <v>0.01334696989175388</v>
+        <v>0.0005567850217386364</v>
       </c>
       <c r="T13">
-        <v>0.01334696989175388</v>
+        <v>0.0005567850217386361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H14">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I14">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J14">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N14">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q14">
-        <v>28.00351123684978</v>
+        <v>15.34233216719644</v>
       </c>
       <c r="R14">
-        <v>252.031601131648</v>
+        <v>138.080989504768</v>
       </c>
       <c r="S14">
-        <v>0.09862438582605326</v>
+        <v>0.1260034736977678</v>
       </c>
       <c r="T14">
-        <v>0.09862438582605328</v>
+        <v>0.1260034736977678</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H15">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I15">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J15">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N15">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q15">
-        <v>16.55541654856844</v>
+        <v>4.311134519808</v>
       </c>
       <c r="R15">
-        <v>148.998748937116</v>
+        <v>38.800210678272</v>
       </c>
       <c r="S15">
-        <v>0.05830582370143942</v>
+        <v>0.03540647661348544</v>
       </c>
       <c r="T15">
-        <v>0.05830582370143943</v>
+        <v>0.03540647661348543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H16">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I16">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J16">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N16">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q16">
-        <v>0.07284510055333332</v>
+        <v>0.03335990198044444</v>
       </c>
       <c r="R16">
-        <v>0.6556059049799999</v>
+        <v>0.300239117824</v>
       </c>
       <c r="S16">
-        <v>0.0002565500890851065</v>
+        <v>0.0002739781335682785</v>
       </c>
       <c r="T16">
-        <v>0.0002565500890851066</v>
+        <v>0.0002739781335682785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,14 +1455,14 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H17">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I17">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J17">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,276 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N17">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q17">
-        <v>11.00595571229555</v>
+        <v>4.571186854798222</v>
       </c>
       <c r="R17">
-        <v>99.05360141065998</v>
+        <v>41.14068169318399</v>
       </c>
       <c r="S17">
-        <v>0.03876141150205273</v>
+        <v>0.03754223388916507</v>
       </c>
       <c r="T17">
-        <v>0.03876141150205273</v>
+        <v>0.03754223388916506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.057865</v>
+      </c>
+      <c r="I18">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J18">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>211.2725676666666</v>
+      </c>
+      <c r="N18">
+        <v>633.8177029999999</v>
+      </c>
+      <c r="O18">
+        <v>0.6324644927232657</v>
+      </c>
+      <c r="P18">
+        <v>0.6324644927232657</v>
+      </c>
+      <c r="Q18">
+        <v>4.075095709343889</v>
+      </c>
+      <c r="R18">
+        <v>36.67586138409499</v>
+      </c>
+      <c r="S18">
+        <v>0.03346793756206547</v>
+      </c>
+      <c r="T18">
+        <v>0.03346793756206546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.057865</v>
+      </c>
+      <c r="I19">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J19">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.36675400000001</v>
+      </c>
+      <c r="N19">
+        <v>178.100262</v>
+      </c>
+      <c r="O19">
+        <v>0.1777200152765546</v>
+      </c>
+      <c r="P19">
+        <v>0.1777200152765546</v>
+      </c>
+      <c r="Q19">
+        <v>1.14508574007</v>
+      </c>
+      <c r="R19">
+        <v>10.30577166063</v>
+      </c>
+      <c r="S19">
+        <v>0.009404357783303351</v>
+      </c>
+      <c r="T19">
+        <v>0.00940435778330335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.057865</v>
+      </c>
+      <c r="I20">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J20">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4593846666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.378154</v>
+      </c>
+      <c r="O20">
+        <v>0.001375211620595172</v>
+      </c>
+      <c r="P20">
+        <v>0.001375211620595172</v>
+      </c>
+      <c r="Q20">
+        <v>0.008860764578888888</v>
+      </c>
+      <c r="R20">
+        <v>0.07974688121</v>
+      </c>
+      <c r="S20">
+        <v>7.277166889563949E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.277166889563948E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.057865</v>
+      </c>
+      <c r="I21">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J21">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>62.94782133333333</v>
+      </c>
+      <c r="N21">
+        <v>188.843464</v>
+      </c>
+      <c r="O21">
+        <v>0.1884402803795846</v>
+      </c>
+      <c r="P21">
+        <v>0.1884402803795846</v>
+      </c>
+      <c r="Q21">
+        <v>1.214158560484444</v>
+      </c>
+      <c r="R21">
+        <v>10.92742704436</v>
+      </c>
+      <c r="S21">
+        <v>0.009971638899073411</v>
+      </c>
+      <c r="T21">
+        <v>0.009971638899073409</v>
       </c>
     </row>
   </sheetData>
